--- a/data/1-final_data/panel_abs_mar.xlsx
+++ b/data/1-final_data/panel_abs_mar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusto/Desktop/UCR/Seminario/Github/DataCleaning/data/1-final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABD2327-0629-FA44-90F0-E1C1AACA3ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E63940C-2942-374A-969F-7C9E6601DDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6340" yWindow="1800" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abs_mar" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="89">
   <si>
     <t>Provincia</t>
   </si>
@@ -318,7 +318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -341,13 +341,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -688,9 +702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F243"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="I187" sqref="I187"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4479,16 +4495,16 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D190">
         <v>2006</v>
       </c>
       <c r="E190">
-        <v>8.7990412514192009</v>
+        <v>100</v>
       </c>
       <c r="F190">
-        <v>75.495143181531475</v>
+        <v>74.94462</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -4499,16 +4515,16 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D191">
         <v>2006</v>
       </c>
       <c r="E191">
-        <v>2.5096411664365128</v>
+        <v>8.7990412514192009</v>
       </c>
       <c r="F191">
-        <v>55.376344086021497</v>
+        <v>75.495143181531475</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -4519,16 +4535,16 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D192">
         <v>2006</v>
       </c>
       <c r="E192">
-        <v>8.991929004801074</v>
+        <v>2.5096411664365128</v>
       </c>
       <c r="F192">
-        <v>75.658607559669377</v>
+        <v>55.376344086021497</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -4539,16 +4555,16 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D193">
         <v>2006</v>
       </c>
       <c r="E193">
-        <v>14.49113414760834</v>
+        <v>8.991929004801074</v>
       </c>
       <c r="F193">
-        <v>38.987379807692307</v>
+        <v>75.658607559669377</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -4559,16 +4575,16 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D194">
         <v>2006</v>
       </c>
       <c r="E194">
-        <v>20.736468632715169</v>
+        <v>14.49113414760834</v>
       </c>
       <c r="F194">
-        <v>64.452644526445269</v>
+        <v>38.987379807692307</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -4579,16 +4595,16 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D195">
         <v>2006</v>
       </c>
       <c r="E195">
-        <v>8.0107373497693164</v>
+        <v>20.736468632715169</v>
       </c>
       <c r="F195">
-        <v>60.60565456250837</v>
+        <v>64.452644526445269</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -4599,16 +4615,16 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D196">
         <v>2006</v>
       </c>
       <c r="E196">
-        <v>2.497291877987486</v>
+        <v>8.0107373497693164</v>
       </c>
       <c r="F196">
-        <v>60.948935120467063</v>
+        <v>60.60565456250837</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -4616,19 +4632,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D197">
         <v>2006</v>
       </c>
       <c r="E197">
-        <v>7.4732373803471006</v>
+        <v>2.497291877987486</v>
       </c>
       <c r="F197">
-        <v>66.791246210705538</v>
+        <v>60.948935120467063</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -4639,16 +4655,16 @@
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D198">
         <v>2006</v>
       </c>
       <c r="E198">
-        <v>2.1958991595127841</v>
+        <v>7.4732373803471006</v>
       </c>
       <c r="F198">
-        <v>67.738336006695036</v>
+        <v>66.791246210705538</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -4659,16 +4675,16 @@
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D199">
         <v>2006</v>
       </c>
       <c r="E199">
-        <v>1.0971878418028409</v>
+        <v>2.1958991595127841</v>
       </c>
       <c r="F199">
-        <v>69.118020842158785</v>
+        <v>67.738336006695036</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -4679,16 +4695,16 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D200">
         <v>2006</v>
       </c>
       <c r="E200">
-        <v>2.2607702251751189</v>
+        <v>1.0971878418028409</v>
       </c>
       <c r="F200">
-        <v>85.118842136217765</v>
+        <v>69.118020842158785</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -4699,16 +4715,16 @@
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D201">
         <v>2006</v>
       </c>
       <c r="E201">
-        <v>2.0654249089527328</v>
+        <v>2.2607702251751189</v>
       </c>
       <c r="F201">
-        <v>74.947497374868746</v>
+        <v>85.118842136217765</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -4719,16 +4735,16 @@
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D202">
         <v>2006</v>
       </c>
       <c r="E202">
-        <v>9.6139671571580365</v>
+        <v>2.0654249089527328</v>
       </c>
       <c r="F202">
-        <v>72.59747743133363</v>
+        <v>74.947497374868746</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -4739,16 +4755,16 @@
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D203">
         <v>2006</v>
       </c>
       <c r="E203">
-        <v>2.331950817546653</v>
+        <v>9.6139671571580365</v>
       </c>
       <c r="F203">
-        <v>82.633190910122138</v>
+        <v>72.59747743133363</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -4759,16 +4775,16 @@
         <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D204">
         <v>2006</v>
       </c>
       <c r="E204">
-        <v>4.0349081625679677</v>
+        <v>2.331950817546653</v>
       </c>
       <c r="F204">
-        <v>75.183583140529123</v>
+        <v>82.633190910122138</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -4779,16 +4795,16 @@
         <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D205">
         <v>2006</v>
       </c>
       <c r="E205">
-        <v>2.490910815027823</v>
+        <v>4.0349081625679677</v>
       </c>
       <c r="F205">
-        <v>76.730769230769241</v>
+        <v>75.183583140529123</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -4799,16 +4815,16 @@
         <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D206">
         <v>2006</v>
       </c>
       <c r="E206">
-        <v>3.4361696402495858</v>
+        <v>2.490910815027823</v>
       </c>
       <c r="F206">
-        <v>67.777434038979976</v>
+        <v>76.730769230769241</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -4816,19 +4832,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D207">
         <v>2006</v>
       </c>
       <c r="E207">
-        <v>5.4080381347331006</v>
+        <v>3.4361696402495858</v>
       </c>
       <c r="F207">
-        <v>75.915595440213437</v>
+        <v>67.777434038979976</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -4839,16 +4855,16 @@
         <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D208">
         <v>2006</v>
       </c>
       <c r="E208">
-        <v>0.60910073103312801</v>
+        <v>5.4080381347331006</v>
       </c>
       <c r="F208">
-        <v>81.949035812672179</v>
+        <v>75.915595440213437</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -4859,16 +4875,16 @@
         <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D209">
         <v>2006</v>
       </c>
       <c r="E209">
-        <v>4.0004080972809266</v>
+        <v>0.60910073103312801</v>
       </c>
       <c r="F209">
-        <v>62.66102099236641</v>
+        <v>81.949035812672179</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -4879,16 +4895,16 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D210">
         <v>2006</v>
       </c>
       <c r="E210">
-        <v>1.476653308376997</v>
+        <v>4.0004080972809266</v>
       </c>
       <c r="F210">
-        <v>76.367409684857805</v>
+        <v>62.66102099236641</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -4899,16 +4915,16 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D211">
         <v>2006</v>
       </c>
       <c r="E211">
-        <v>0.36935602314050803</v>
+        <v>1.476653308376997</v>
       </c>
       <c r="F211">
-        <v>78.158062460165709</v>
+        <v>76.367409684857805</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -4919,16 +4935,16 @@
         <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D212">
         <v>2006</v>
       </c>
       <c r="E212">
-        <v>8.5702940079263463</v>
+        <v>0.36935602314050803</v>
       </c>
       <c r="F212">
-        <v>46.310144270715313</v>
+        <v>78.158062460165709</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -4936,19 +4952,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D213">
         <v>2006</v>
       </c>
       <c r="E213">
-        <v>19.19373795000887</v>
+        <v>8.5702940079263463</v>
       </c>
       <c r="F213">
-        <v>67.264480111653867</v>
+        <v>46.310144270715313</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -4959,16 +4975,16 @@
         <v>10</v>
       </c>
       <c r="C214" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D214">
         <v>2006</v>
       </c>
       <c r="E214">
-        <v>6.0905192717740881</v>
+        <v>19.19373795000887</v>
       </c>
       <c r="F214">
-        <v>73.628977657413671</v>
+        <v>67.264480111653867</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -4979,16 +4995,16 @@
         <v>10</v>
       </c>
       <c r="C215" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D215">
         <v>2006</v>
       </c>
       <c r="E215">
-        <v>4.531135607029074</v>
+        <v>6.0905192717740881</v>
       </c>
       <c r="F215">
-        <v>78.702724684831225</v>
+        <v>73.628977657413671</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -4999,16 +5015,16 @@
         <v>10</v>
       </c>
       <c r="C216" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D216">
         <v>2006</v>
       </c>
       <c r="E216">
-        <v>6.0346013320942458</v>
+        <v>4.531135607029074</v>
       </c>
       <c r="F216">
-        <v>72.256258368158399</v>
+        <v>78.702724684831225</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -5019,16 +5035,16 @@
         <v>10</v>
       </c>
       <c r="C217" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D217">
         <v>2006</v>
       </c>
       <c r="E217">
-        <v>0.65997026015624272</v>
+        <v>6.0346013320942458</v>
       </c>
       <c r="F217">
-        <v>60.835668169082723</v>
+        <v>72.256258368158399</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -5039,16 +5055,16 @@
         <v>10</v>
       </c>
       <c r="C218" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D218">
         <v>2006</v>
       </c>
       <c r="E218">
-        <v>9.6013005146007924</v>
+        <v>0.65997026015624272</v>
       </c>
       <c r="F218">
-        <v>56.294101044312733</v>
+        <v>60.835668169082723</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -5059,16 +5075,16 @@
         <v>10</v>
       </c>
       <c r="C219" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D219">
         <v>2006</v>
       </c>
       <c r="E219">
-        <v>2.292575983530547</v>
+        <v>9.6013005146007924</v>
       </c>
       <c r="F219">
-        <v>76.851934192974653</v>
+        <v>56.294101044312733</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -5079,16 +5095,16 @@
         <v>10</v>
       </c>
       <c r="C220" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D220">
         <v>2006</v>
       </c>
       <c r="E220">
-        <v>15.050113012955009</v>
+        <v>2.292575983530547</v>
       </c>
       <c r="F220">
-        <v>42.922665307682507</v>
+        <v>76.851934192974653</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -5099,16 +5115,16 @@
         <v>10</v>
       </c>
       <c r="C221" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D221">
         <v>2006</v>
       </c>
       <c r="E221">
-        <v>11.485792800839929</v>
+        <v>15.050113012955009</v>
       </c>
       <c r="F221">
-        <v>73.680400554985823</v>
+        <v>42.922665307682507</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -5119,16 +5135,16 @@
         <v>10</v>
       </c>
       <c r="C222" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D222">
         <v>2006</v>
       </c>
       <c r="E222">
-        <v>9.5091666723426602</v>
+        <v>11.485792800839929</v>
       </c>
       <c r="F222">
-        <v>50.815250704916018</v>
+        <v>73.680400554985823</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -5139,16 +5155,16 @@
         <v>10</v>
       </c>
       <c r="C223" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D223">
         <v>2006</v>
       </c>
       <c r="E223">
-        <v>4.4902986192402068</v>
+        <v>9.5091666723426602</v>
       </c>
       <c r="F223">
-        <v>73.836126629422722</v>
+        <v>50.815250704916018</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -5156,19 +5172,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C224" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D224">
         <v>2006</v>
       </c>
       <c r="E224">
-        <v>1.048392168075275</v>
+        <v>4.4902986192402068</v>
       </c>
       <c r="F224">
-        <v>66.84980267739688</v>
+        <v>73.836126629422722</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -5179,16 +5195,16 @@
         <v>11</v>
       </c>
       <c r="C225" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D225">
         <v>2006</v>
       </c>
       <c r="E225">
-        <v>18.2039547060796</v>
+        <v>1.048392168075275</v>
       </c>
       <c r="F225">
-        <v>83.216969696969699</v>
+        <v>66.84980267739688</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -5199,16 +5215,16 @@
         <v>11</v>
       </c>
       <c r="C226" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D226">
         <v>2006</v>
       </c>
       <c r="E226">
-        <v>6.2059345635015477</v>
+        <v>18.2039547060796</v>
       </c>
       <c r="F226">
-        <v>76.90171634515967</v>
+        <v>83.216969696969699</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -5219,16 +5235,16 @@
         <v>11</v>
       </c>
       <c r="C227" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D227">
         <v>2006</v>
       </c>
       <c r="E227">
-        <v>1.9149804981422991</v>
+        <v>6.2059345635015477</v>
       </c>
       <c r="F227">
-        <v>81.842615012106535</v>
+        <v>76.90171634515967</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -5239,16 +5255,16 @@
         <v>11</v>
       </c>
       <c r="C228" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D228">
         <v>2006</v>
       </c>
       <c r="E228">
-        <v>2.0617901860629471</v>
+        <v>1.9149804981422991</v>
       </c>
       <c r="F228">
-        <v>84.922932652590362</v>
+        <v>81.842615012106535</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -5259,16 +5275,16 @@
         <v>11</v>
       </c>
       <c r="C229" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D229">
         <v>2006</v>
       </c>
       <c r="E229">
-        <v>0.64407205922979482</v>
+        <v>2.0617901860629471</v>
       </c>
       <c r="F229">
-        <v>65.666591473043084</v>
+        <v>84.922932652590362</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -5279,16 +5295,16 @@
         <v>11</v>
       </c>
       <c r="C230" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D230">
         <v>2006</v>
       </c>
       <c r="E230">
-        <v>13.797139060796001</v>
+        <v>0.64407205922979482</v>
       </c>
       <c r="F230">
-        <v>77.564487102579477</v>
+        <v>65.666591473043084</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -5299,16 +5315,16 @@
         <v>11</v>
       </c>
       <c r="C231" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D231">
         <v>2006</v>
       </c>
       <c r="E231">
-        <v>4.7100274671071487</v>
+        <v>13.797139060796001</v>
       </c>
       <c r="F231">
-        <v>84.788763066202094</v>
+        <v>77.564487102579477</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -5319,16 +5335,16 @@
         <v>11</v>
       </c>
       <c r="C232" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D232">
         <v>2006</v>
       </c>
       <c r="E232">
-        <v>24.707998392432462</v>
+        <v>4.7100274671071487</v>
       </c>
       <c r="F232">
-        <v>47.570683502607743</v>
+        <v>84.788763066202094</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -5339,16 +5355,16 @@
         <v>11</v>
       </c>
       <c r="C233" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D233">
         <v>2006</v>
       </c>
       <c r="E233">
-        <v>16.875314432705551</v>
+        <v>24.707998392432462</v>
       </c>
       <c r="F233">
-        <v>80.925847615730945</v>
+        <v>47.570683502607743</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -5359,16 +5375,16 @@
         <v>11</v>
       </c>
       <c r="C234" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D234">
         <v>2006</v>
       </c>
       <c r="E234">
-        <v>3.5035936873752518</v>
+        <v>16.875314432705551</v>
       </c>
       <c r="F234">
-        <v>68.907838635618234</v>
+        <v>80.925847615730945</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -5379,16 +5395,16 @@
         <v>11</v>
       </c>
       <c r="C235" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D235">
         <v>2006</v>
       </c>
       <c r="E235">
-        <v>9.6919212253397795</v>
+        <v>3.5035936873752518</v>
       </c>
       <c r="F235">
-        <v>82.594757684329622</v>
+        <v>68.907838635618234</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -5399,16 +5415,16 @@
         <v>11</v>
       </c>
       <c r="C236" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D236">
         <v>2006</v>
       </c>
       <c r="E236">
-        <v>9.8034803018790271</v>
+        <v>9.6919212253397795</v>
       </c>
       <c r="F236">
-        <v>60.395680188764857</v>
+        <v>82.594757684329622</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -5419,16 +5435,16 @@
         <v>11</v>
       </c>
       <c r="C237" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D237">
         <v>2006</v>
       </c>
       <c r="E237">
-        <v>8.9959218337744069</v>
+        <v>9.8034803018790271</v>
       </c>
       <c r="F237">
-        <v>71.882439960243161</v>
+        <v>60.395680188764857</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -5439,16 +5455,16 @@
         <v>11</v>
       </c>
       <c r="C238" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D238">
         <v>2006</v>
       </c>
       <c r="E238">
-        <v>9.5303065246584175</v>
+        <v>8.9959218337744069</v>
       </c>
       <c r="F238">
-        <v>88.119086124786676</v>
+        <v>71.882439960243161</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -5459,16 +5475,16 @@
         <v>11</v>
       </c>
       <c r="C239" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D239">
         <v>2006</v>
       </c>
       <c r="E239">
-        <v>2.937138847345544E-2</v>
+        <v>9.5303065246584175</v>
       </c>
       <c r="F239">
-        <v>64.373240602748808</v>
+        <v>88.119086124786676</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -5479,16 +5495,16 @@
         <v>11</v>
       </c>
       <c r="C240" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D240">
         <v>2006</v>
       </c>
       <c r="E240">
-        <v>1.040765755947934</v>
+        <v>2.937138847345544E-2</v>
       </c>
       <c r="F240">
-        <v>65.917761763459097</v>
+        <v>64.373240602748808</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -5499,16 +5515,16 @@
         <v>11</v>
       </c>
       <c r="C241" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D241">
         <v>2006</v>
       </c>
       <c r="E241">
-        <v>3.121831348614394</v>
+        <v>1.040765755947934</v>
       </c>
       <c r="F241">
-        <v>87.278559714538019</v>
+        <v>65.917761763459097</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -5519,16 +5535,16 @@
         <v>11</v>
       </c>
       <c r="C242" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D242">
         <v>2006</v>
       </c>
       <c r="E242">
-        <v>30.108554443127321</v>
+        <v>3.121831348614394</v>
       </c>
       <c r="F242">
-        <v>22.346072186836519</v>
+        <v>87.278559714538019</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -5539,15 +5555,35 @@
         <v>11</v>
       </c>
       <c r="C243" t="s">
+        <v>87</v>
+      </c>
+      <c r="D243">
+        <v>2006</v>
+      </c>
+      <c r="E243">
+        <v>30.108554443127321</v>
+      </c>
+      <c r="F243">
+        <v>22.346072186836519</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>11</v>
+      </c>
+      <c r="C244" t="s">
         <v>88</v>
       </c>
-      <c r="D243">
-        <v>2006</v>
-      </c>
-      <c r="E243">
+      <c r="D244">
+        <v>2006</v>
+      </c>
+      <c r="E244">
         <v>30.743351999387361</v>
       </c>
-      <c r="F243">
+      <c r="F244">
         <v>74.249506336391136</v>
       </c>
     </row>

--- a/data/1-final_data/panel_abs_mar.xlsx
+++ b/data/1-final_data/panel_abs_mar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusto/Desktop/UCR/Seminario/Github/DataCleaning/data/1-final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E63940C-2942-374A-969F-7C9E6601DDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230FD2CD-6A5F-3646-B174-3898C751276C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6340" yWindow="1800" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="I187" sqref="I187"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
